--- a/performanceFeedback_sample_data_v1.0.xlsx
+++ b/performanceFeedback_sample_data_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://allegiscloud-my.sharepoint.com/personal/vmadhasi_teksystems_com/Documents/PracticeWork/FeedbackApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{3823DA79-6AB9-491B-A241-8778652631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DBE4CC3-9BF5-4202-B20D-B853962028ED}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{3823DA79-6AB9-491B-A241-8778652631DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC14A358-55C5-404B-A812-568A3FE01BB0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" tabRatio="398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,9 +455,6 @@
     <t>Roshni is often reactive rather than proactive. Needs a structured plan to improve performance and accountability.</t>
   </si>
   <si>
-    <t>Vikram Choudhary</t>
-  </si>
-  <si>
     <t>Vikram is dependable and delivers high-quality work consistently, but could benefit from contributing more creatively.</t>
   </si>
   <si>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t>REPORT_MANAGER_MAIL</t>
+  </si>
+  <si>
+    <t>Vikram Goud</t>
   </si>
 </sst>
 </file>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1637,10 +1637,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="28.8">
@@ -1687,7 +1687,7 @@
         <v>45619</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>16</v>
@@ -1744,7 +1744,7 @@
         <v>45224</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>16</v>
@@ -1801,7 +1801,7 @@
         <v>45411</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P4" s="5" t="s">
         <v>16</v>
@@ -1858,7 +1858,7 @@
         <v>45328</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>16</v>
@@ -1915,13 +1915,13 @@
         <v>45408</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1972,13 +1972,13 @@
         <v>45149</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2029,13 +2029,13 @@
         <v>45121</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2086,13 +2086,13 @@
         <v>45294</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2143,13 +2143,13 @@
         <v>45631</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2200,13 +2200,13 @@
         <v>45071</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2257,13 +2257,13 @@
         <v>45483</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2314,13 +2314,13 @@
         <v>45225</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2371,13 +2371,13 @@
         <v>45596</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2428,13 +2428,13 @@
         <v>44943</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2485,13 +2485,13 @@
         <v>45330</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2542,13 +2542,13 @@
         <v>45599</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2599,13 +2599,13 @@
         <v>45347</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2656,13 +2656,13 @@
         <v>44937</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2713,13 +2713,13 @@
         <v>45272</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2770,13 +2770,13 @@
         <v>45581</v>
       </c>
       <c r="O21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="Q21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2827,13 +2827,13 @@
         <v>45007</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2884,13 +2884,13 @@
         <v>45021</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2941,13 +2941,13 @@
         <v>45228</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -2998,13 +2998,13 @@
         <v>45019</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3055,7 +3055,7 @@
         <v>45575</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>16</v>
@@ -3112,7 +3112,7 @@
         <v>45622</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>16</v>
@@ -3169,7 +3169,7 @@
         <v>45279</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>16</v>
@@ -3226,7 +3226,7 @@
         <v>45262</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>16</v>
@@ -3283,7 +3283,7 @@
         <v>44937</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>16</v>
@@ -3340,13 +3340,13 @@
         <v>44962</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3397,13 +3397,13 @@
         <v>45469</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3454,13 +3454,13 @@
         <v>45587</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3511,13 +3511,13 @@
         <v>44927</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3568,13 +3568,13 @@
         <v>45214</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3625,13 +3625,13 @@
         <v>45479</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3682,13 +3682,13 @@
         <v>44976</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3739,7 +3739,7 @@
         <v>45537</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>16</v>
@@ -3796,7 +3796,7 @@
         <v>45318</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>16</v>
@@ -3853,7 +3853,7 @@
         <v>45200</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>16</v>
@@ -3910,7 +3910,7 @@
         <v>45491</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>16</v>
@@ -3967,13 +3967,13 @@
         <v>45142</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4024,13 +4024,13 @@
         <v>45441</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4081,13 +4081,13 @@
         <v>45198</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4138,13 +4138,13 @@
         <v>45079</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4195,13 +4195,13 @@
         <v>45094</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4252,13 +4252,13 @@
         <v>45393</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4309,13 +4309,13 @@
         <v>45399</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4366,13 +4366,13 @@
         <v>45467</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4423,13 +4423,13 @@
         <v>45400</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4480,13 +4480,13 @@
         <v>45174</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4537,13 +4537,13 @@
         <v>45366</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4594,13 +4594,13 @@
         <v>45393</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4651,13 +4651,13 @@
         <v>45614</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4708,13 +4708,13 @@
         <v>45018</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R55" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4765,13 +4765,13 @@
         <v>45561</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R56" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4822,13 +4822,13 @@
         <v>45131</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R57" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4879,13 +4879,13 @@
         <v>45116</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R58" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4936,13 +4936,13 @@
         <v>45001</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R59" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4993,13 +4993,13 @@
         <v>45657</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R60" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5050,13 +5050,13 @@
         <v>44983</v>
       </c>
       <c r="O61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P61" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="Q61" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R61" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5107,7 +5107,7 @@
         <v>45403</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P62" s="5" t="s">
         <v>16</v>
@@ -5164,7 +5164,7 @@
         <v>45656</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P63" s="5" t="s">
         <v>16</v>
@@ -5221,7 +5221,7 @@
         <v>44954</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P64" s="5" t="s">
         <v>16</v>
@@ -5278,7 +5278,7 @@
         <v>45047</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P65" s="5" t="s">
         <v>16</v>
@@ -5335,7 +5335,7 @@
         <v>45022</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P66" s="5" t="s">
         <v>16</v>
@@ -5392,13 +5392,13 @@
         <v>45174</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R67" s="5" t="str">
         <f t="shared" ref="R67:R130" si="1">LOWER(SUBSTITUTE(A67, " ", ".") &amp; "@mycompany.com")</f>
@@ -5449,13 +5449,13 @@
         <v>45202</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R68" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5506,13 +5506,13 @@
         <v>45397</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R69" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5563,13 +5563,13 @@
         <v>45165</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R70" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5620,13 +5620,13 @@
         <v>45622</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R71" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5677,13 +5677,13 @@
         <v>45362</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R72" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5734,13 +5734,13 @@
         <v>45427</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R73" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5791,13 +5791,13 @@
         <v>45033</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P74" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R74" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5848,13 +5848,13 @@
         <v>44950</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P75" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R75" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5905,13 +5905,13 @@
         <v>45002</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P76" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R76" s="5" t="str">
         <f t="shared" si="1"/>
@@ -5962,13 +5962,13 @@
         <v>45056</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P77" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R77" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6019,13 +6019,13 @@
         <v>45279</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P78" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R78" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6076,13 +6076,13 @@
         <v>45239</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R79" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6133,13 +6133,13 @@
         <v>45153</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R80" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6190,13 +6190,13 @@
         <v>45581</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P81" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R81" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6247,13 +6247,13 @@
         <v>45413</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q82" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R82" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6304,13 +6304,13 @@
         <v>44958</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R83" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6361,13 +6361,13 @@
         <v>45260</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R84" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6418,13 +6418,13 @@
         <v>45087</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R85" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6475,13 +6475,13 @@
         <v>45413</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R86" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6532,13 +6532,13 @@
         <v>44979</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R87" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6589,13 +6589,13 @@
         <v>44953</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R88" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6646,13 +6646,13 @@
         <v>45485</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R89" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6703,7 +6703,7 @@
         <v>45062</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P90" s="5" t="s">
         <v>16</v>
@@ -6760,7 +6760,7 @@
         <v>45009</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P91" s="5" t="s">
         <v>16</v>
@@ -6817,7 +6817,7 @@
         <v>45215</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>16</v>
@@ -6874,7 +6874,7 @@
         <v>45182</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P93" s="5" t="s">
         <v>16</v>
@@ -6931,13 +6931,13 @@
         <v>45183</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R94" s="5" t="str">
         <f t="shared" si="1"/>
@@ -6988,13 +6988,13 @@
         <v>45559</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P95" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R95" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7045,13 +7045,13 @@
         <v>45087</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P96" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R96" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7102,13 +7102,13 @@
         <v>45591</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R97" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7159,7 +7159,7 @@
         <v>45324</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>16</v>
@@ -7216,13 +7216,13 @@
         <v>45025</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R99" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7273,13 +7273,13 @@
         <v>45346</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P100" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R100" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7330,13 +7330,13 @@
         <v>45584</v>
       </c>
       <c r="O101" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P101" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P101" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="Q101" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R101" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7387,7 +7387,7 @@
         <v>45461</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P102" s="5" t="s">
         <v>16</v>
@@ -7444,13 +7444,13 @@
         <v>45604</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P103" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R103" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7501,13 +7501,13 @@
         <v>45474</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P104" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R104" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7516,112 +7516,112 @@
     </row>
     <row r="105" spans="1:18" ht="28.8">
       <c r="A105" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="3">
+        <v>4</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3">
+        <v>4</v>
+      </c>
+      <c r="E105" s="3">
+        <v>4</v>
+      </c>
+      <c r="F105" s="3">
+        <v>4</v>
+      </c>
+      <c r="G105" s="3">
+        <v>4</v>
+      </c>
+      <c r="H105" s="3">
+        <v>4</v>
+      </c>
+      <c r="I105" s="3">
+        <v>4</v>
+      </c>
+      <c r="J105" s="3">
+        <v>4</v>
+      </c>
+      <c r="K105" s="3">
+        <v>4</v>
+      </c>
+      <c r="L105" s="3">
+        <v>4</v>
+      </c>
+      <c r="M105" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B105" s="3">
-        <v>4</v>
-      </c>
-      <c r="C105" s="3">
-        <v>4</v>
-      </c>
-      <c r="D105" s="3">
-        <v>4</v>
-      </c>
-      <c r="E105" s="3">
-        <v>4</v>
-      </c>
-      <c r="F105" s="3">
-        <v>4</v>
-      </c>
-      <c r="G105" s="3">
-        <v>4</v>
-      </c>
-      <c r="H105" s="3">
-        <v>4</v>
-      </c>
-      <c r="I105" s="3">
-        <v>4</v>
-      </c>
-      <c r="J105" s="3">
-        <v>4</v>
-      </c>
-      <c r="K105" s="3">
-        <v>4</v>
-      </c>
-      <c r="L105" s="3">
-        <v>4</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N105" s="4">
         <v>45268</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R105" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>vikram.choudhary@mycompany.com</v>
+        <v>vikram.goud@mycompany.com</v>
       </c>
     </row>
     <row r="106" spans="1:18" ht="28.8">
       <c r="A106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+      <c r="E106" s="3">
+        <v>1</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>1</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
+      <c r="L106" s="3">
+        <v>1</v>
+      </c>
+      <c r="M106" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3">
-        <v>1</v>
-      </c>
-      <c r="E106" s="3">
-        <v>1</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1</v>
-      </c>
-      <c r="G106" s="3">
-        <v>1</v>
-      </c>
-      <c r="H106" s="3">
-        <v>1</v>
-      </c>
-      <c r="I106" s="3">
-        <v>1</v>
-      </c>
-      <c r="J106" s="3">
-        <v>1</v>
-      </c>
-      <c r="K106" s="3">
-        <v>1</v>
-      </c>
-      <c r="L106" s="3">
-        <v>1</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="N106" s="4">
         <v>45390</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P106" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R106" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7630,55 +7630,55 @@
     </row>
     <row r="107" spans="1:18" ht="28.8">
       <c r="A107" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5</v>
+      </c>
+      <c r="C107" s="3">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3">
+        <v>5</v>
+      </c>
+      <c r="E107" s="3">
+        <v>5</v>
+      </c>
+      <c r="F107" s="3">
+        <v>5</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5</v>
+      </c>
+      <c r="H107" s="3">
+        <v>5</v>
+      </c>
+      <c r="I107" s="3">
+        <v>5</v>
+      </c>
+      <c r="J107" s="3">
+        <v>5</v>
+      </c>
+      <c r="K107" s="3">
+        <v>5</v>
+      </c>
+      <c r="L107" s="3">
+        <v>5</v>
+      </c>
+      <c r="M107" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B107" s="3">
-        <v>5</v>
-      </c>
-      <c r="C107" s="3">
-        <v>5</v>
-      </c>
-      <c r="D107" s="3">
-        <v>5</v>
-      </c>
-      <c r="E107" s="3">
-        <v>5</v>
-      </c>
-      <c r="F107" s="3">
-        <v>5</v>
-      </c>
-      <c r="G107" s="3">
-        <v>5</v>
-      </c>
-      <c r="H107" s="3">
-        <v>5</v>
-      </c>
-      <c r="I107" s="3">
-        <v>5</v>
-      </c>
-      <c r="J107" s="3">
-        <v>5</v>
-      </c>
-      <c r="K107" s="3">
-        <v>5</v>
-      </c>
-      <c r="L107" s="3">
-        <v>5</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="N107" s="4">
         <v>45327</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P107" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R107" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7687,55 +7687,55 @@
     </row>
     <row r="108" spans="1:18" ht="28.8">
       <c r="A108" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2</v>
+      </c>
+      <c r="C108" s="3">
+        <v>3</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3">
+        <v>3</v>
+      </c>
+      <c r="G108" s="3">
+        <v>2</v>
+      </c>
+      <c r="H108" s="3">
+        <v>2</v>
+      </c>
+      <c r="I108" s="3">
+        <v>3</v>
+      </c>
+      <c r="J108" s="3">
+        <v>3</v>
+      </c>
+      <c r="K108" s="3">
+        <v>2</v>
+      </c>
+      <c r="L108" s="3">
+        <v>3</v>
+      </c>
+      <c r="M108" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B108" s="3">
-        <v>2</v>
-      </c>
-      <c r="C108" s="3">
-        <v>3</v>
-      </c>
-      <c r="D108" s="3">
-        <v>2</v>
-      </c>
-      <c r="E108" s="3">
-        <v>2</v>
-      </c>
-      <c r="F108" s="3">
-        <v>3</v>
-      </c>
-      <c r="G108" s="3">
-        <v>2</v>
-      </c>
-      <c r="H108" s="3">
-        <v>2</v>
-      </c>
-      <c r="I108" s="3">
-        <v>3</v>
-      </c>
-      <c r="J108" s="3">
-        <v>3</v>
-      </c>
-      <c r="K108" s="3">
-        <v>2</v>
-      </c>
-      <c r="L108" s="3">
-        <v>3</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="N108" s="4">
         <v>45202</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P108" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R108" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7744,49 +7744,49 @@
     </row>
     <row r="109" spans="1:18" ht="28.8">
       <c r="A109" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="3">
+        <v>4</v>
+      </c>
+      <c r="C109" s="3">
+        <v>4</v>
+      </c>
+      <c r="D109" s="3">
+        <v>5</v>
+      </c>
+      <c r="E109" s="3">
+        <v>4</v>
+      </c>
+      <c r="F109" s="3">
+        <v>4</v>
+      </c>
+      <c r="G109" s="3">
+        <v>4</v>
+      </c>
+      <c r="H109" s="3">
+        <v>5</v>
+      </c>
+      <c r="I109" s="3">
+        <v>4</v>
+      </c>
+      <c r="J109" s="3">
+        <v>5</v>
+      </c>
+      <c r="K109" s="3">
+        <v>4</v>
+      </c>
+      <c r="L109" s="3">
+        <v>4</v>
+      </c>
+      <c r="M109" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B109" s="3">
-        <v>4</v>
-      </c>
-      <c r="C109" s="3">
-        <v>4</v>
-      </c>
-      <c r="D109" s="3">
-        <v>5</v>
-      </c>
-      <c r="E109" s="3">
-        <v>4</v>
-      </c>
-      <c r="F109" s="3">
-        <v>4</v>
-      </c>
-      <c r="G109" s="3">
-        <v>4</v>
-      </c>
-      <c r="H109" s="3">
-        <v>5</v>
-      </c>
-      <c r="I109" s="3">
-        <v>4</v>
-      </c>
-      <c r="J109" s="3">
-        <v>5</v>
-      </c>
-      <c r="K109" s="3">
-        <v>4</v>
-      </c>
-      <c r="L109" s="3">
-        <v>4</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="N109" s="4">
         <v>44992</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P109" s="5" t="s">
         <v>16</v>
@@ -7801,55 +7801,55 @@
     </row>
     <row r="110" spans="1:18" ht="28.8">
       <c r="A110" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="3">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>2</v>
+      </c>
+      <c r="D110" s="3">
+        <v>3</v>
+      </c>
+      <c r="E110" s="3">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3</v>
+      </c>
+      <c r="I110" s="3">
+        <v>3</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="K110" s="3">
+        <v>3</v>
+      </c>
+      <c r="L110" s="3">
+        <v>3</v>
+      </c>
+      <c r="M110" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B110" s="3">
-        <v>3</v>
-      </c>
-      <c r="C110" s="3">
-        <v>2</v>
-      </c>
-      <c r="D110" s="3">
-        <v>3</v>
-      </c>
-      <c r="E110" s="3">
-        <v>3</v>
-      </c>
-      <c r="F110" s="3">
-        <v>2</v>
-      </c>
-      <c r="G110" s="3">
-        <v>3</v>
-      </c>
-      <c r="H110" s="3">
-        <v>3</v>
-      </c>
-      <c r="I110" s="3">
-        <v>3</v>
-      </c>
-      <c r="J110" s="3">
-        <v>2</v>
-      </c>
-      <c r="K110" s="3">
-        <v>3</v>
-      </c>
-      <c r="L110" s="3">
-        <v>3</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="N110" s="4">
         <v>45347</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R110" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7858,55 +7858,55 @@
     </row>
     <row r="111" spans="1:18" ht="28.8">
       <c r="A111" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="3">
+        <v>5</v>
+      </c>
+      <c r="C111" s="3">
+        <v>5</v>
+      </c>
+      <c r="D111" s="3">
+        <v>5</v>
+      </c>
+      <c r="E111" s="3">
+        <v>5</v>
+      </c>
+      <c r="F111" s="3">
+        <v>5</v>
+      </c>
+      <c r="G111" s="3">
+        <v>5</v>
+      </c>
+      <c r="H111" s="3">
+        <v>5</v>
+      </c>
+      <c r="I111" s="3">
+        <v>5</v>
+      </c>
+      <c r="J111" s="3">
+        <v>5</v>
+      </c>
+      <c r="K111" s="3">
+        <v>5</v>
+      </c>
+      <c r="L111" s="3">
+        <v>5</v>
+      </c>
+      <c r="M111" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B111" s="3">
-        <v>5</v>
-      </c>
-      <c r="C111" s="3">
-        <v>5</v>
-      </c>
-      <c r="D111" s="3">
-        <v>5</v>
-      </c>
-      <c r="E111" s="3">
-        <v>5</v>
-      </c>
-      <c r="F111" s="3">
-        <v>5</v>
-      </c>
-      <c r="G111" s="3">
-        <v>5</v>
-      </c>
-      <c r="H111" s="3">
-        <v>5</v>
-      </c>
-      <c r="I111" s="3">
-        <v>5</v>
-      </c>
-      <c r="J111" s="3">
-        <v>5</v>
-      </c>
-      <c r="K111" s="3">
-        <v>5</v>
-      </c>
-      <c r="L111" s="3">
-        <v>5</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="N111" s="4">
         <v>45105</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R111" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7915,55 +7915,55 @@
     </row>
     <row r="112" spans="1:18" ht="28.8">
       <c r="A112" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="3">
+        <v>1</v>
+      </c>
+      <c r="J112" s="3">
+        <v>1</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="3">
+        <v>1</v>
+      </c>
+      <c r="M112" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3">
-        <v>1</v>
-      </c>
-      <c r="D112" s="3">
-        <v>1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="3">
-        <v>1</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="3">
-        <v>1</v>
-      </c>
-      <c r="J112" s="3">
-        <v>1</v>
-      </c>
-      <c r="K112" s="3">
-        <v>1</v>
-      </c>
-      <c r="L112" s="3">
-        <v>1</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="N112" s="4">
         <v>44987</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R112" s="5" t="str">
         <f t="shared" si="1"/>
@@ -7972,55 +7972,55 @@
     </row>
     <row r="113" spans="1:18" ht="28.8">
       <c r="A113" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="3">
+        <v>4</v>
+      </c>
+      <c r="C113" s="3">
+        <v>4</v>
+      </c>
+      <c r="D113" s="3">
+        <v>4</v>
+      </c>
+      <c r="E113" s="3">
+        <v>5</v>
+      </c>
+      <c r="F113" s="3">
+        <v>4</v>
+      </c>
+      <c r="G113" s="3">
+        <v>4</v>
+      </c>
+      <c r="H113" s="3">
+        <v>5</v>
+      </c>
+      <c r="I113" s="3">
+        <v>4</v>
+      </c>
+      <c r="J113" s="3">
+        <v>4</v>
+      </c>
+      <c r="K113" s="3">
+        <v>4</v>
+      </c>
+      <c r="L113" s="3">
+        <v>4</v>
+      </c>
+      <c r="M113" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B113" s="3">
-        <v>4</v>
-      </c>
-      <c r="C113" s="3">
-        <v>4</v>
-      </c>
-      <c r="D113" s="3">
-        <v>4</v>
-      </c>
-      <c r="E113" s="3">
-        <v>5</v>
-      </c>
-      <c r="F113" s="3">
-        <v>4</v>
-      </c>
-      <c r="G113" s="3">
-        <v>4</v>
-      </c>
-      <c r="H113" s="3">
-        <v>5</v>
-      </c>
-      <c r="I113" s="3">
-        <v>4</v>
-      </c>
-      <c r="J113" s="3">
-        <v>4</v>
-      </c>
-      <c r="K113" s="3">
-        <v>4</v>
-      </c>
-      <c r="L113" s="3">
-        <v>4</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="N113" s="4">
         <v>45224</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q113" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R113" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8029,55 +8029,55 @@
     </row>
     <row r="114" spans="1:18" ht="28.8">
       <c r="A114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3">
+        <v>3</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3</v>
+      </c>
+      <c r="F114" s="3">
+        <v>3</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3</v>
+      </c>
+      <c r="H114" s="3">
+        <v>3</v>
+      </c>
+      <c r="I114" s="3">
+        <v>3</v>
+      </c>
+      <c r="J114" s="3">
+        <v>3</v>
+      </c>
+      <c r="K114" s="3">
+        <v>3</v>
+      </c>
+      <c r="L114" s="3">
+        <v>3</v>
+      </c>
+      <c r="M114" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B114" s="3">
-        <v>3</v>
-      </c>
-      <c r="C114" s="3">
-        <v>3</v>
-      </c>
-      <c r="D114" s="3">
-        <v>3</v>
-      </c>
-      <c r="E114" s="3">
-        <v>3</v>
-      </c>
-      <c r="F114" s="3">
-        <v>3</v>
-      </c>
-      <c r="G114" s="3">
-        <v>3</v>
-      </c>
-      <c r="H114" s="3">
-        <v>3</v>
-      </c>
-      <c r="I114" s="3">
-        <v>3</v>
-      </c>
-      <c r="J114" s="3">
-        <v>3</v>
-      </c>
-      <c r="K114" s="3">
-        <v>3</v>
-      </c>
-      <c r="L114" s="3">
-        <v>3</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="N114" s="4">
         <v>45627</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R114" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8086,55 +8086,55 @@
     </row>
     <row r="115" spans="1:18" ht="28.8">
       <c r="A115" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5</v>
+      </c>
+      <c r="D115" s="3">
+        <v>5</v>
+      </c>
+      <c r="E115" s="3">
+        <v>5</v>
+      </c>
+      <c r="F115" s="3">
+        <v>5</v>
+      </c>
+      <c r="G115" s="3">
+        <v>5</v>
+      </c>
+      <c r="H115" s="3">
+        <v>5</v>
+      </c>
+      <c r="I115" s="3">
+        <v>5</v>
+      </c>
+      <c r="J115" s="3">
+        <v>5</v>
+      </c>
+      <c r="K115" s="3">
+        <v>5</v>
+      </c>
+      <c r="L115" s="3">
+        <v>5</v>
+      </c>
+      <c r="M115" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B115" s="3">
-        <v>5</v>
-      </c>
-      <c r="C115" s="3">
-        <v>5</v>
-      </c>
-      <c r="D115" s="3">
-        <v>5</v>
-      </c>
-      <c r="E115" s="3">
-        <v>5</v>
-      </c>
-      <c r="F115" s="3">
-        <v>5</v>
-      </c>
-      <c r="G115" s="3">
-        <v>5</v>
-      </c>
-      <c r="H115" s="3">
-        <v>5</v>
-      </c>
-      <c r="I115" s="3">
-        <v>5</v>
-      </c>
-      <c r="J115" s="3">
-        <v>5</v>
-      </c>
-      <c r="K115" s="3">
-        <v>5</v>
-      </c>
-      <c r="L115" s="3">
-        <v>5</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="N115" s="4">
         <v>45580</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R115" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8143,49 +8143,49 @@
     </row>
     <row r="116" spans="1:18" ht="28.8">
       <c r="A116" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
+      <c r="C116" s="3">
+        <v>2</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3">
+        <v>2</v>
+      </c>
+      <c r="G116" s="3">
+        <v>2</v>
+      </c>
+      <c r="H116" s="3">
+        <v>2</v>
+      </c>
+      <c r="I116" s="3">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3">
+        <v>2</v>
+      </c>
+      <c r="K116" s="3">
+        <v>2</v>
+      </c>
+      <c r="L116" s="3">
+        <v>2</v>
+      </c>
+      <c r="M116" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B116" s="3">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3">
-        <v>2</v>
-      </c>
-      <c r="D116" s="3">
-        <v>2</v>
-      </c>
-      <c r="E116" s="3">
-        <v>2</v>
-      </c>
-      <c r="F116" s="3">
-        <v>2</v>
-      </c>
-      <c r="G116" s="3">
-        <v>2</v>
-      </c>
-      <c r="H116" s="3">
-        <v>2</v>
-      </c>
-      <c r="I116" s="3">
-        <v>2</v>
-      </c>
-      <c r="J116" s="3">
-        <v>2</v>
-      </c>
-      <c r="K116" s="3">
-        <v>2</v>
-      </c>
-      <c r="L116" s="3">
-        <v>2</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="N116" s="4">
         <v>44988</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>16</v>
@@ -8236,19 +8236,19 @@
         <v>1</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N117" s="4">
         <v>44963</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R117" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8293,13 +8293,13 @@
         <v>1</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N118" s="4">
         <v>45096</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P118" s="5" t="s">
         <v>16</v>
@@ -8350,19 +8350,19 @@
         <v>3</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N119" s="4">
         <v>45167</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R119" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8407,19 +8407,19 @@
         <v>3</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N120" s="4">
         <v>45032</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R120" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8464,19 +8464,19 @@
         <v>4</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N121" s="4">
         <v>45401</v>
       </c>
       <c r="O121" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P121" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P121" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="Q121" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R121" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8521,13 +8521,13 @@
         <v>5</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N122" s="4">
         <v>45525</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P122" s="5" t="s">
         <v>16</v>
@@ -8578,19 +8578,19 @@
         <v>1</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N123" s="4">
         <v>45245</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R123" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8635,19 +8635,19 @@
         <v>3</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N124" s="4">
         <v>45016</v>
       </c>
       <c r="O124" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P124" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q124" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R124" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8656,7 +8656,7 @@
     </row>
     <row r="125" spans="1:18" ht="28.8">
       <c r="A125" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="B125" s="3">
         <v>5</v>
@@ -8692,28 +8692,28 @@
         <v>5</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N125" s="4">
         <v>45091</v>
       </c>
       <c r="O125" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q125" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R125" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>vikram.choudhary@mycompany.com</v>
+        <v>vikram.goud@mycompany.com</v>
       </c>
     </row>
     <row r="126" spans="1:18" ht="28.8">
       <c r="A126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126" s="3">
         <v>2</v>
@@ -8749,19 +8749,19 @@
         <v>1</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N126" s="4">
         <v>45133</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P126" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R126" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="127" spans="1:18" ht="28.8">
       <c r="A127" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B127" s="3">
         <v>4</v>
@@ -8806,19 +8806,19 @@
         <v>4</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N127" s="4">
         <v>45441</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P127" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q127" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R127" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="128" spans="1:18" ht="28.8">
       <c r="A128" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
@@ -8863,19 +8863,19 @@
         <v>1</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N128" s="4">
         <v>45012</v>
       </c>
       <c r="O128" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q128" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R128" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="129" spans="1:18" ht="28.8">
       <c r="A129" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B129" s="3">
         <v>3</v>
@@ -8920,13 +8920,13 @@
         <v>3</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N129" s="4">
         <v>44998</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P129" s="5" t="s">
         <v>16</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="130" spans="1:18" ht="28.8">
       <c r="A130" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" s="3">
         <v>5</v>
@@ -8977,19 +8977,19 @@
         <v>5</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N130" s="4">
         <v>45122</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R130" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="131" spans="1:18" ht="28.8">
       <c r="A131" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -9034,19 +9034,19 @@
         <v>1</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N131" s="4">
         <v>45290</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P131" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q131" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R131" s="5" t="str">
         <f t="shared" ref="R131:R156" si="2">LOWER(SUBSTITUTE(A131, " ", ".") &amp; "@mycompany.com")</f>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="132" spans="1:18" ht="28.8">
       <c r="A132" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B132" s="3">
         <v>2</v>
@@ -9091,19 +9091,19 @@
         <v>2</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N132" s="4">
         <v>45489</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q132" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R132" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="133" spans="1:18" ht="28.8">
       <c r="A133" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="3">
         <v>4</v>
@@ -9148,19 +9148,19 @@
         <v>4</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N133" s="4">
         <v>45568</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q133" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R133" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="134" spans="1:18" ht="28.8">
       <c r="A134" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" s="3">
         <v>3</v>
@@ -9205,19 +9205,19 @@
         <v>3</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N134" s="4">
         <v>45124</v>
       </c>
       <c r="O134" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R134" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="135" spans="1:18" ht="28.8">
       <c r="A135" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="3">
         <v>5</v>
@@ -9262,19 +9262,19 @@
         <v>5</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N135" s="4">
         <v>45054</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R135" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="136" spans="1:18" ht="28.8">
       <c r="A136" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
@@ -9319,13 +9319,13 @@
         <v>1</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N136" s="4">
         <v>45472</v>
       </c>
       <c r="O136" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P136" s="5" t="s">
         <v>16</v>
@@ -9376,19 +9376,19 @@
         <v>1</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N137" s="4">
         <v>45212</v>
       </c>
       <c r="O137" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q137" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R137" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9433,13 +9433,13 @@
         <v>1</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N138" s="4">
         <v>45261</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P138" s="5" t="s">
         <v>16</v>
@@ -9490,19 +9490,19 @@
         <v>3</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N139" s="4">
         <v>45449</v>
       </c>
       <c r="O139" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q139" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R139" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9547,19 +9547,19 @@
         <v>3</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N140" s="4">
         <v>45395</v>
       </c>
       <c r="O140" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q140" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R140" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9604,19 +9604,19 @@
         <v>4</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N141" s="4">
         <v>45297</v>
       </c>
       <c r="O141" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P141" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="P141" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="Q141" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R141" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9661,13 +9661,13 @@
         <v>5</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N142" s="4">
         <v>45615</v>
       </c>
       <c r="O142" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P142" s="5" t="s">
         <v>16</v>
@@ -9718,19 +9718,19 @@
         <v>1</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N143" s="4">
         <v>45482</v>
       </c>
       <c r="O143" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P143" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q143" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R143" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9775,19 +9775,19 @@
         <v>3</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N144" s="4">
         <v>45162</v>
       </c>
       <c r="O144" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P144" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q144" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R144" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="145" spans="1:18" ht="28.8">
       <c r="A145" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="B145" s="3">
         <v>5</v>
@@ -9832,28 +9832,28 @@
         <v>5</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N145" s="4">
         <v>45337</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q145" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R145" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>vikram.choudhary@mycompany.com</v>
+        <v>vikram.goud@mycompany.com</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="28.8">
       <c r="A146" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146" s="3">
         <v>2</v>
@@ -9889,19 +9889,19 @@
         <v>1</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N146" s="4">
         <v>45367</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R146" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="147" spans="1:18" ht="28.8">
       <c r="A147" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B147" s="3">
         <v>4</v>
@@ -9946,19 +9946,19 @@
         <v>4</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N147" s="4">
         <v>45103</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q147" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R147" s="5" t="str">
         <f t="shared" si="2"/>
@@ -9967,7 +9967,7 @@
     </row>
     <row r="148" spans="1:18" ht="28.8">
       <c r="A148" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="3">
         <v>1</v>
@@ -10003,19 +10003,19 @@
         <v>1</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N148" s="4">
         <v>45642</v>
       </c>
       <c r="O148" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q148" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R148" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="149" spans="1:18" ht="28.8">
       <c r="A149" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="3">
         <v>3</v>
@@ -10060,13 +10060,13 @@
         <v>3</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N149" s="4">
         <v>45570</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P149" s="5" t="s">
         <v>16</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="150" spans="1:18" ht="28.8">
       <c r="A150" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>5</v>
@@ -10117,19 +10117,19 @@
         <v>5</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N150" s="4">
         <v>45266</v>
       </c>
       <c r="O150" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P150" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R150" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="151" spans="1:18" ht="28.8">
       <c r="A151" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" s="3">
         <v>1</v>
@@ -10174,19 +10174,19 @@
         <v>1</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N151" s="4">
         <v>45306</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P151" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q151" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R151" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10195,7 +10195,7 @@
     </row>
     <row r="152" spans="1:18" ht="28.8">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="3">
         <v>2</v>
@@ -10231,19 +10231,19 @@
         <v>2</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N152" s="4">
         <v>45613</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P152" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q152" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R152" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="153" spans="1:18" ht="28.8">
       <c r="A153" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153" s="3">
         <v>4</v>
@@ -10288,19 +10288,19 @@
         <v>4</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N153" s="4">
         <v>45001</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q153" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R153" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10309,7 +10309,7 @@
     </row>
     <row r="154" spans="1:18" ht="28.8">
       <c r="A154" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B154" s="3">
         <v>3</v>
@@ -10345,19 +10345,19 @@
         <v>3</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N154" s="4">
         <v>45513</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R154" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10366,7 +10366,7 @@
     </row>
     <row r="155" spans="1:18" ht="28.8">
       <c r="A155" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" s="3">
         <v>5</v>
@@ -10402,19 +10402,19 @@
         <v>5</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N155" s="4">
         <v>45048</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="R155" s="5" t="str">
         <f t="shared" si="2"/>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="156" spans="1:18" ht="28.8">
       <c r="A156" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="3">
         <v>1</v>
@@ -10459,13 +10459,13 @@
         <v>1</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N156" s="4">
         <v>45073</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P156" s="5" t="s">
         <v>16</v>
